--- a/backend/ESTRUCTURA_EVENTOS.xlsx
+++ b/backend/ESTRUCTURA_EVENTOS.xlsx
@@ -10,7 +10,7 @@
     <sheet name="01_Eventos" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="02_Insumos_Eventos" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="03_Productos_Evento" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="📖 INSTRUCCIONES" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="INSTRUCCIONES" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,11 +31,6 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <color rgb="004472C4"/>
-      <sz val="16"/>
     </font>
   </fonts>
   <fills count="3">
@@ -64,12 +59,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,42 +429,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="30" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="18" customWidth="1" min="13" max="13"/>
-    <col width="15" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="15" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="18" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="12" customWidth="1" min="21" max="21"/>
-    <col width="10" customWidth="1" min="22" max="22"/>
-    <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
-    <col width="40" customWidth="1" min="26" max="26"/>
-    <col width="18" customWidth="1" min="27" max="27"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -617,22 +582,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sofía Martínez</t>
+          <t>María González</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+569 8765 4321</t>
+          <t>+56912345678</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sofia.martinez@email.com</t>
+          <t>maria.gonzalez@email.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Boda Sofía &amp; Diego</t>
+          <t>Boda María &amp; Juan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -642,7 +607,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-07</t>
+          <t>2025-11-15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -652,7 +617,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Parque Araucano - Santiago</t>
+          <t>Hotel Plaza, Santiago</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -660,44 +625,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Confirmado</t>
+          <t>Cotización</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>850000</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>300000</v>
+        <v>80000</v>
       </c>
       <c r="N2" t="n">
         <v>50000</v>
       </c>
       <c r="O2" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1300000</v>
+        <v>130000</v>
       </c>
       <c r="Q2" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>1755000</v>
+        <v>169000</v>
       </c>
       <c r="S2" t="n">
-        <v>1755000</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1255000</v>
+        <v>169000</v>
       </c>
       <c r="V2" t="b">
         <v>0</v>
       </c>
       <c r="W2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="b">
         <v>0</v>
@@ -707,7 +672,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Boda de jardín, requiere arreglos florales grandes</t>
+          <t>Cliente solicita flores blancas y rosadas</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -724,46 +689,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roberto Silva</t>
+          <t>Empresa TechCorp</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+569 1234 5678</t>
+          <t>+56987654321</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>roberto.silva@email.com</t>
+          <t>eventos@techcorp.cl</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cumpleaños 50 años Roberto</t>
+          <t>Aniversario 10 años TechCorp</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cumpleaños</t>
+          <t>Corporativo</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Salón Los Pinos</t>
+          <t>Centro de Eventos Espacio Riesco</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -774,22 +739,22 @@
         <v>380000</v>
       </c>
       <c r="M3" t="n">
-        <v>150000</v>
+        <v>120000</v>
       </c>
       <c r="N3" t="n">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="O3" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="P3" t="n">
-        <v>600000</v>
+        <v>630000</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="R3" t="n">
-        <v>780000</v>
+        <v>787500</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -798,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>787500</v>
       </c>
       <c r="V3" t="b">
         <v>0</v>
@@ -814,12 +779,12 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Centro de mesa elegantes, colores dorado y blanco</t>
+          <t>Evento corporativo formal, colores azul y blanco</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-20</t>
         </is>
       </c>
     </row>
@@ -831,87 +796,87 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Empresa TechCorp</t>
+          <t>Carolina Pérez</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+562 2345 6789</t>
+          <t>+56923456789</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>eventos@techcorp.cl</t>
+          <t>caro.perez@gmail.com</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aniversario 10 años TechCorp</t>
+          <t>Cumpleaños 30 de Carolina</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Corporativo</t>
+          <t>Cumpleaños</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-22</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Hotel W Santiago</t>
+          <t>Restaurant El Jardín, Providencia</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Cotización</t>
+          <t>Confirmado</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1200000</v>
+        <v>150000</v>
       </c>
       <c r="M4" t="n">
-        <v>450000</v>
+        <v>50000</v>
       </c>
       <c r="N4" t="n">
-        <v>80000</v>
+        <v>30000</v>
       </c>
       <c r="O4" t="n">
-        <v>150000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>1880000</v>
+        <v>250000</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R4" t="n">
-        <v>2632000</v>
+        <v>337500</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>337500</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>237500</v>
       </c>
       <c r="V4" t="b">
         <v>0</v>
       </c>
       <c r="W4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="b">
         <v>0</v>
@@ -921,12 +886,226 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Evento corporativo formal, colores azul y plata</t>
+          <t>Temática tropical, muchas flores coloridas</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>EV004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Andrea Morales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>+56934567890</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>andrea.morales@hotmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Baby Shower Sofía</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Baby Shower</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Salón de Eventos La Rosaleda</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Retirado</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>95000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>35000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>25000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>165000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>214500</v>
+      </c>
+      <c r="S5" t="n">
+        <v>214500</v>
+      </c>
+      <c r="T5" t="n">
+        <v>214500</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>⚠️ FALTAN: 2 maceteros PE002, 3 velas PE006 - Cliente debe devolver</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Universidad Central</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>+56945678901</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ceremonias@ucentral.cl</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ceremonia Graduación 2025</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Graduación</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Auditorio Universidad Central</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>300</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>En Preparación</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>280000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>90000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>60000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>40000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>470000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>20</v>
+      </c>
+      <c r="R6" t="n">
+        <v>564000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>564000</v>
+      </c>
+      <c r="T6" t="n">
+        <v>200000</v>
+      </c>
+      <c r="U6" t="n">
+        <v>364000</v>
+      </c>
+      <c r="V6" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Arreglos elegantes para escenario y pasillo</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
@@ -941,32 +1120,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="35" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="30" customWidth="1" min="12" max="12"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID Evento</t>
+          <t>Evento ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -976,12 +1141,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ID Insumo</t>
+          <t>ID/Código Insumo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Nombre</t>
+          <t>Nombre Insumo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1006,7 +1171,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Descontado</t>
+          <t>Descontado Stock</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1028,32 +1193,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EV001</t>
+          <t>EV003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>producto</t>
+          <t>producto_evento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PR001</t>
+          <t>PE001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Passion Roja (15 arreglos)</t>
+          <t>Mantel Redondo Blanco 3m</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>25000</v>
+        <v>5000</v>
       </c>
       <c r="G2" t="n">
-        <v>375000</v>
+        <v>50000</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1067,41 +1232,37 @@
       <c r="K2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Centros de mesa</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EV001</t>
+          <t>EV003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>producto</t>
+          <t>producto_evento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PR006</t>
+          <t>PE005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dulce Lirio (10 arreglos)</t>
+          <t>Vela Pilar Grande Blanca</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>55000</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="n">
-        <v>550000</v>
+        <v>40000</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1115,41 +1276,37 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Arreglos altar</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EV001</t>
+          <t>EV003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>producto_evento</t>
+          <t>flor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PE001</t>
+          <t>FL001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mantel Blanco 3x3m</t>
+          <t>Rosa Roja Premium</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>8000</v>
+        <v>800</v>
       </c>
       <c r="G4" t="n">
-        <v>160000</v>
+        <v>80000</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1165,39 +1322,39 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Para mesas</t>
+          <t>Para centros de mesa</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EV001</t>
+          <t>EV003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>producto_evento</t>
+          <t>contenedor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PE005</t>
+          <t>CT001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Vela Pilar Grande</t>
+          <t>Florero Vidrio Redondo Pequeño</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F5" t="n">
         <v>3000</v>
       </c>
       <c r="G5" t="n">
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1211,44 +1368,36 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Iluminación</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EV001</t>
+          <t>EV003</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>contenedor</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>CT003</t>
-        </is>
-      </c>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Florero Vidrio Grande</t>
+          <t>Mano de Obra - Decoración</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G6" t="n">
-        <v>125000</v>
+        <v>50000</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1261,39 +1410,35 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Para centros de mesa</t>
+          <t>6 horas de trabajo</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EV002</t>
+          <t>EV003</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>producto</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>PR004</t>
-        </is>
-      </c>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Elegancia Rosa (12 arreglos)</t>
+          <t>Transporte y Montaje</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>35000</v>
+        <v>30000</v>
       </c>
       <c r="G7" t="n">
-        <v>420000</v>
+        <v>30000</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -1309,14 +1454,14 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Decoración mesas</t>
+          <t>Camioneta + ayudante</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EV002</t>
+          <t>EV004</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1331,40 +1476,40 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mantel Dorado 2.5x2.5m</t>
+          <t>Macetero Terracota Mediano</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G8" t="n">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Mesas principales</t>
+          <t>⚠️ FALTAN 2 maceteros</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EV002</t>
+          <t>EV004</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1379,177 +1524,585 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Vela Flotante</t>
+          <t>Vela Pilar Pequeña Rosada</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>1500</v>
       </c>
       <c r="G9" t="n">
-        <v>75000</v>
+        <v>15000</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Ambiente</t>
+          <t>⚠️ FALTAN 3 velas</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EV003</t>
+          <t>EV004</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>producto</t>
+          <t>producto_evento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PR009</t>
+          <t>PE001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ramo Clásico (30 arreglos)</t>
+          <t>Mantel Redondo Blanco 3m</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="n">
-        <v>1500000</v>
+        <v>30000</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Centros de mesa</t>
+          <t>Devueltos OK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EV003</t>
+          <t>EV004</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>producto_evento</t>
+          <t>flor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PE003</t>
+          <t>FL005</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mantel Azul 3x3m</t>
+          <t>Clavel Blanco</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F11" t="n">
-        <v>9000</v>
+        <v>400</v>
       </c>
       <c r="G11" t="n">
-        <v>225000</v>
+        <v>32000</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Mesas corporativas</t>
+          <t>Usados en arreglos</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EV003</t>
+          <t>EV004</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>contenedor</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CT003</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Canasto Mimbre Natural</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Devueltos OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>EV004</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mano de Obra - Montaje</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>35000</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4 horas</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EV004</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Transporte</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>25000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>25000</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Ida y retiro</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>producto_evento</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>PE007</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Camino de Mesa Plateado</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>25</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Arco Floral Grande</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Para escenario</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>producto_evento</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PE001</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mantel Redondo Blanco 3m</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>30</v>
+      </c>
+      <c r="F16" t="n">
         <v>5000</v>
       </c>
-      <c r="G12" t="n">
-        <v>125000</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Decoración</t>
+      <c r="G16" t="n">
+        <v>150000</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>flor</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FL001</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rosa Roja Premium</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>200</v>
+      </c>
+      <c r="F17" t="n">
+        <v>800</v>
+      </c>
+      <c r="G17" t="n">
+        <v>160000</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Para arreglos principales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>flor</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FL002</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Lirio Blanco</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G18" t="n">
+        <v>120000</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Complemento arreglos</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>contenedor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CT001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Florero Vidrio Redondo Pequeño</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>120000</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mano de Obra - Equipo Completo</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>90000</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2 personas x 5 horas</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>EV005</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>otro</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Transporte Camión Grande</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>60000</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Incluye ayudantes</t>
         </is>
       </c>
     </row>
@@ -1571,20 +2124,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="40" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12" customWidth="1" min="12" max="12"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1604,7 +2143,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Stock</t>
+          <t>Stock Total</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -1656,7 +2195,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mantel Blanco 3x3m</t>
+          <t>Mantel Redondo Blanco 3m</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1665,28 +2204,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>8000</v>
       </c>
       <c r="H2" t="n">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Mantel blanco para mesas cuadradas</t>
+          <t>Mantel redondo blanco de tela</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3x3 metros</t>
+          <t>3m diámetro</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1696,7 +2235,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Poliéster</t>
+          <t>Tela</t>
         </is>
       </c>
     </row>
@@ -1708,47 +2247,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mantel Dorado 2.5x2.5m</t>
+          <t>Macetero Terracota Mediano</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mantelería</t>
+          <t>Contenedores</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="H3" t="n">
         <v>4000</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Mantel dorado elegante</t>
+          <t>Macetero de terracota artesanal</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.5x2.5 metros</t>
+          <t>25cm alto</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Dorado</t>
+          <t>Natural</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Satén</t>
+          <t>Terracota</t>
         </is>
       </c>
     </row>
@@ -1760,7 +2299,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mantel Azul 3x3m</t>
+          <t>Mantel Rectangular Marfil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1769,38 +2308,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="H4" t="n">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Mantel azul corporativo</t>
+          <t>Mantel rectangular marfil</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3x3 metros</t>
+          <t>2m x 3m</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Azul</t>
+          <t>Marfil</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Poliéster</t>
+          <t>Tela</t>
         </is>
       </c>
     </row>
@@ -1812,7 +2351,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camino de Mesa Blanco</t>
+          <t>Mantel Cuadrado Negro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1821,38 +2360,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="H5" t="n">
-        <v>1500</v>
+        <v>5500</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Camino de mesa decorativo</t>
+          <t>Mantel cuadrado elegante</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3x0.5 metros</t>
+          <t>2m x 2m</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Negro</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Lino</t>
+          <t>Tela</t>
         </is>
       </c>
     </row>
@@ -1864,7 +2403,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vela Pilar Grande</t>
+          <t>Vela Pilar Grande Blanca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1876,16 +2415,16 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G6" t="n">
         <v>3000</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1894,7 +2433,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>15cm alto x 10cm diámetro</t>
+          <t>15cm alto</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1916,7 +2455,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vela Flotante</t>
+          <t>Vela Pilar Pequeña Rosada</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1925,33 +2464,33 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H7" t="n">
         <v>1500</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Velas pequeñas flotantes</t>
+          <t>Vela pilar pequeña rosada</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>5cm diámetro</t>
+          <t>10cm alto</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Rosado</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1968,47 +2507,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Camino de Mesa Plateado</t>
+          <t>Arco Floral Grande</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mantelería</t>
+          <t>Estructura</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="H8" t="n">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Camino con detalles plateados</t>
+          <t>Arco metálico para flores</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>3x0.5 metros</t>
+          <t>2.5m x 2m</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Plateado</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Satén</t>
+          <t>Metal</t>
         </is>
       </c>
     </row>
@@ -2020,12 +2559,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Triángulo Floral Grande</t>
+          <t>Triángulo Decorativo Largo</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Decoración</t>
+          <t>Estructura</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -2041,16 +2580,16 @@
         <v>45000</v>
       </c>
       <c r="H9" t="n">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Estructura triangular para arreglos</t>
+          <t>Triángulo decorativo metálico</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2m altura</t>
+          <t>1.8m alto</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2072,47 +2611,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arco Floral Redondo</t>
+          <t>Base para Centros de Mesa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Decoración</t>
+          <t>Soporte</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G10" t="n">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="H10" t="n">
-        <v>25000</v>
+        <v>3000</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Arco circular para bodas</t>
+          <t>Base espejo circular</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2.5m diámetro</t>
+          <t>30cm diámetro</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Blanco</t>
+          <t>Espejo</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Metal</t>
+          <t>Vidrio</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2663,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Base Cilíndrica Grande</t>
+          <t>Cortina de Luces LED</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Decoración</t>
+          <t>Iluminación</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2145,26 +2684,26 @@
         <v>25000</v>
       </c>
       <c r="H11" t="n">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Cilindro decorativo alto</t>
+          <t>Cortina LED blanco cálido</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1m altura x 30cm diámetro</t>
+          <t>3m x 3m</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Transparente</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Acrílico</t>
+          <t>Cable LED</t>
         </is>
       </c>
     </row>
@@ -2176,37 +2715,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Servilleta Lino Blanca</t>
+          <t>Letras Decorativas Grandes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mantelería</t>
+          <t>Decoración</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>1500</v>
+        <v>35000</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Servilleta de lino premium</t>
+          <t>Letras iluminadas LOVE/HAPPY</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>45x45cm</t>
+          <t>80cm alto</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2216,7 +2755,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Lino</t>
+          <t>MDF</t>
         </is>
       </c>
     </row>
@@ -2228,47 +2767,47 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Centro de Mesa Espejo</t>
+          <t>Mesa Auxiliar Plegable</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Decoración</t>
+          <t>Mobiliario</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>4000</v>
+        <v>15000</v>
       </c>
       <c r="H13" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Espejo redondo decorativo</t>
+          <t>Mesa plegable para buffet</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>30cm diámetro</t>
+          <t>1.5m x 0.8m</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Espejo</t>
+          <t>Blanco</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Vidrio</t>
+          <t>Metal/Plástico</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A93"/>
+  <dimension ref="A1:A102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,13 +2830,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="90" customWidth="1" min="1" max="1"/>
+    <col width="100" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>SISTEMA DE GESTIÓN DE EVENTOS</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>SISTEMA DE GESTIÓN DE EVENTOS - LAS LIRA</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2846,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Este archivo contiene la estructura de datos para eventos de Las-Lira.</t>
+          <t>📋 ESTRUCTURA DEL ARCHIVO</t>
         </is>
       </c>
     </row>
@@ -2317,187 +2856,183 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>📋 HOJA 1: EVENTOS</t>
+          <t>Hoja 1: 01_Eventos</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>- Lista de todos los eventos con sus estados y costos</t>
+          <t xml:space="preserve">  • Contiene todos los eventos con información completa</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>- Estados: Cotización → Propuesta → Confirmado → En Preparación → En Evento → Finalizado → Retirado</t>
+          <t xml:space="preserve">  • Estados: Cotización → Propuesta → Confirmado → En Preparación → En Evento → Finalizado → Retirado</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>- Costos separados: insumos, mano de obra, transporte, otros</t>
+          <t xml:space="preserve">  • Cada evento tiene ID único (EV001, EV002, etc.)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>- Margen % para calcular precio de venta</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>- Control de pagos: anticipo, saldo, pagado</t>
+          <t>Hoja 2: 02_Insumos_Eventos</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>- Control de insumos: reservados, descontados, faltantes</t>
+          <t xml:space="preserve">  • Detalle de todos los insumos utilizados por evento</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Tipos de insumo: flor, contenedor, producto, producto_evento, otro</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>📦 HOJA 2: INSUMOS DE EVENTOS</t>
+          <t xml:space="preserve">  • Control de reserva, descuento de stock y devolución</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>- Cada evento tiene múltiples insumos</t>
+          <t xml:space="preserve">  • ⚠️ Cantidad Faltante: Si &gt;0 significa que NO fue devuelto</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>- Tipos: flor, contenedor, producto, producto_evento, otro</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>- Control individual: cantidad, costo, reservado, descontado, devuelto</t>
+          <t>Hoja 3: 03_Productos_Evento</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>- Cantidad faltante: lo que no se devolvió</t>
+          <t xml:space="preserve">  • Catálogo de productos específicos para eventos</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Incluye: manteles, velas, arcos, estructuras, iluminación</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>🎨 HOJA 3: PRODUCTOS DE EVENTOS</t>
+          <t xml:space="preserve">  • Control de stock: Total, En Evento, Disponible</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>- Productos específicos para eventos (manteles, velas, triángulos, etc)</t>
+          <t xml:space="preserve">  • Costo Compra vs Costo Alquiler</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>- Categorías: Mantelería, Iluminación, Decoración, Mobiliario</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>- Stock separado de flores y contenedores normales</t>
+          <t>🔴 EVENTO CON INSUMOS FALTANTES - EJEMPLO</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>- Costo compra vs costo alquiler</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>- Control de "En Evento" para reservas</t>
+          <t>EV004 - Baby Shower Sofía (Andrea Morales)</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Estado: Retirado</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>🔄 FLUJO DE TRABAJO:</t>
+          <t xml:space="preserve">  • Insumos Faltantes: TRUE ⚠️</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Faltantes específicos:</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1. COTIZACIÓN:</t>
+          <t xml:space="preserve">    - 2 Maceteros Terracota Mediano (PE002)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Crear evento con datos del cliente</t>
+          <t xml:space="preserve">    - 3 Velas Pilar Pequeña Rosada (PE006)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Agregar insumos necesarios</t>
+          <t xml:space="preserve">  • Acción: Cliente debe devolver los insumos faltantes</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Calcular costos</t>
+          <t xml:space="preserve">  • Sistema muestra advertencia en la interfaz</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   • Definir margen deseado</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Estado: "Cotización"</t>
+          <t>📊 FLUJO DE TRABAJO</t>
         </is>
       </c>
     </row>
@@ -2507,132 +3042,124 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2. PROPUESTA:</t>
+          <t>1. COTIZACIÓN</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Revisar cotización</t>
+          <t xml:space="preserve">   • Crear evento con datos básicos del cliente</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Ajustar márgenes si es necesario</t>
+          <t xml:space="preserve">   • Agregar insumos estimados</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Generar presupuesto (PDF/Excel)</t>
+          <t xml:space="preserve">   • Calcular costo total + margen → precio propuesta</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   • Enviar al cliente</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Estado: "Propuesta Enviada"</t>
+          <t>2. PROPUESTA ENVIADA</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Cambiar estado cuando se envía presupuesto al cliente</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>3. CONFIRMACIÓN:</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Cliente acepta</t>
+          <t>3. CONFIRMADO</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Confirmar fecha del evento</t>
+          <t xml:space="preserve">   • Cliente acepta la propuesta</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • RESERVAR INSUMOS (cantidad_en_evento++)</t>
+          <t xml:space="preserve">   • ACCIÓN: Reservar insumos (cantidad_en_evento)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • No descuenta stock todavía</t>
+          <t xml:space="preserve">   • Insumos Reservados = TRUE</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   • Solicitar anticipo</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Estado: "Confirmado"</t>
+          <t>4. EN PREPARACIÓN</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Preparando arreglos y decoración</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4. PREPARACIÓN:</t>
+          <t xml:space="preserve">   • OPCIONAL: Descontar stock si se van a usar</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Opción: descontar stock ahora o al finalizar</t>
+          <t xml:space="preserve">   • Insumos Descontados = TRUE</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   • Preparar insumos</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Coordinar logística</t>
+          <t>5. EN EVENTO</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Estado: "En Preparación"</t>
+          <t xml:space="preserve">   • Día del evento</t>
         </is>
       </c>
     </row>
@@ -2642,142 +3169,134 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5. EVENTO:</t>
+          <t>6. FINALIZADO</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Día del evento</t>
+          <t xml:space="preserve">   • Evento terminado</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   • Insumos en uso</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Estado: "En Evento"</t>
+          <t>7. RETIRADO</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr"/>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   • Insumos fueron retirados del lugar</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>6. FINALIZADO:</t>
+          <t xml:space="preserve">   • ACCIÓN: Marcar qué se devolvió y qué falta</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Evento terminó</t>
+          <t xml:space="preserve">   • Si hay faltantes: Insumos Faltantes = TRUE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Presionar "Evento Finalizado"</t>
+          <t xml:space="preserve">   • Sistema marca cliente con "insumo faltante en evento"</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   • Estado: "Finalizado"</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>💡 CÁLCULO AUTOMÁTICO DE COSTOS</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>7. RETIRO:</t>
-        </is>
-      </c>
+      <c r="A66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Recoger insumos</t>
+          <t>Costo Total = Costo Insumos + Costo Mano Obra + Costo Transporte + Costo Otros</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • CHEQUEAR QUÉ VOLVIÓ Y QUÉ NO</t>
+          <t>Precio Propuesta = Costo Total × (1 + Margen% / 100)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Marcar devuelto o faltante</t>
+          <t>Saldo = Precio Final - Anticipo</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   • Si hay faltantes:</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t xml:space="preserve">     - Agregar a lista_faltantes</t>
+          <t>🔍 TIPOS DE INSUMO</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     - Marcar insumos_faltantes = True</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">     - Marcar cliente con "Insumo faltante en evento"</t>
+          <t>• flor: Referencia a tabla Flores (ej: FL001)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Liberar insumos (cantidad_en_evento--)</t>
+          <t>• contenedor: Referencia a tabla Contenedores (ej: CT001)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">   • Estado: "Retirado"</t>
+          <t>• producto: Referencia a tabla Productos/Arreglos (ej: PR001)</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>• producto_evento: Referencia a ProductoEvento (ej: PE001)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>💡 CARACTERÍSTICAS ESPECIALES:</t>
+          <t>• otro: Texto libre (mano de obra, transporte, otros servicios)</t>
         </is>
       </c>
     </row>
@@ -2787,83 +3306,79 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CONTROL DE STOCK SEPARADO:</t>
+          <t>⚡ IMPORTACIÓN</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>• Flores: cantidad_stock - cantidad_en_uso - cantidad_en_evento = disponible</t>
-        </is>
-      </c>
+      <c r="A80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>• Contenedores: stock - en_uso - en_evento = disponible</t>
+          <t>Para importar estos datos al sistema:</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>• Productos Evento: stock - en_evento = disponible</t>
+          <t xml:space="preserve">  1. Guardar este archivo como ESTRUCTURA_EVENTOS.xlsx</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  2. Colocar en carpeta backend/</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MARCADORES DE CLIENTE:</t>
+          <t xml:space="preserve">  3. Ejecutar: python3 importar_eventos_demo.py</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>• Si insumos_faltantes = True → cliente marcado</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>• Útil para decidir si trabajar con ese cliente de nuevo</t>
+          <t>El sistema importará:</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Productos de eventos (si no existen)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FLEXIBILIDAD:</t>
+          <t xml:space="preserve">  • Eventos completos</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>• Puedes descontar stock al confirmar O al finalizar</t>
+          <t xml:space="preserve">  • Insumos asociados a cada evento</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>• Puedes modificar cotización hasta confirmar</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>• Puedes agregar insumos durante el evento</t>
+          <t>⚠️ ADVERTENCIAS EN LA INTERFAZ</t>
         </is>
       </c>
     </row>
@@ -2873,7 +3388,62 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Generado: 2025-10-23 05:54:57</t>
+          <t>Cuando un evento tiene "Insumos Faltantes = TRUE":</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Se muestra alerta visual (icono ⚠️ rojo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Tooltip con detalle de lo que falta</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • El cliente queda marcado como "Insumo Faltante en Evento"</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Se bloquean nuevos eventos para ese cliente hasta devolución</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>📧 CONTACTO SOPORTE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sistema desarrollado para Las Lira Florería</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Octubre 2025</t>
         </is>
       </c>
     </row>
